--- a/00_Organsiatorisches/Zeitplanung_neu.xlsx
+++ b/00_Organsiatorisches/Zeitplanung_neu.xlsx
@@ -93,11 +93,6 @@
 Modelle: Pflanzen, Baum, Wasser, Büsche, Dino, Ü-Ei Figur auspfeilen</t>
   </si>
   <si>
-    <t>abstrakte Szene Pixelwelt, Kamerafahrten, erste Beleuchtung
-Pixelwelt
-Modelle: bewegliche Lianen, Vögel, Banane, Ü-Ei Figur auspfeilen</t>
-  </si>
-  <si>
     <t>zugeteilte Modelle beenden, Urwald-Szene zusammensetzen</t>
   </si>
   <si>
@@ -105,30 +100,12 @@
   </si>
   <si>
     <t xml:space="preserve">zugeteilte Modelle beenden </t>
-  </si>
-  <si>
-    <t>Beleuchtung Shot 9-12, Beleuchtungsbeispiele</t>
-  </si>
-  <si>
-    <t>Beleuchtung Shot 4-8, Beleuchtungsbeispiele</t>
-  </si>
-  <si>
-    <t>Beleuchtung Shot 1-3 &amp; 13-15, Beleuchtungsbeispiele</t>
   </si>
   <si>
     <t>Absprache Zusammentragen Beleuchtungsbeispiele, 
 Animationsfestlegung</t>
   </si>
   <si>
-    <t>Animationen Shot 9-12, Sounds raussuchen</t>
-  </si>
-  <si>
-    <t>Animationen Shot 4-8, Sounds raussuchen</t>
-  </si>
-  <si>
-    <t>Animationen Shot 1-3 &amp; 13-15, Sounds raussuchen</t>
-  </si>
-  <si>
     <t>Animationen beenden,
 Vertonung einzelner Shots, Renderbeispiele einzelner Shots</t>
   </si>
@@ -149,6 +126,29 @@
   </si>
   <si>
     <t>Absprache Animationen und Sounds</t>
+  </si>
+  <si>
+    <t>abstrakte Szene Pixelwelt, Kamerafahrten, erste Beleuchtung
+Fertige Pixelwelt-Szene
+Modelle: bewegliche Lianen, Vögel, Banane, Ü-Ei Figur auspfeilen</t>
+  </si>
+  <si>
+    <t>Beleuchtung Shot 1-2 &amp; 12-14, Beleuchtungsbeispiele</t>
+  </si>
+  <si>
+    <t>Animationen Shot 1-2 &amp; 12-14, Sounds raussuchen</t>
+  </si>
+  <si>
+    <t>Beleuchtung Shot 8-11, Beleuchtungsbeispiele</t>
+  </si>
+  <si>
+    <t>Beleuchtung Shot 3-7, Beleuchtungsbeispiele</t>
+  </si>
+  <si>
+    <t>Animationen Shot 8-11, Sounds raussuchen</t>
+  </si>
+  <si>
+    <t>Animationen Shot 3-7, Sounds raussuchen</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,54 +875,6 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,88 +886,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,28 +935,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,13 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1388,7 +1379,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1414,7 +1405,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5">
@@ -1440,64 +1431,64 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="22">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" s="69" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" s="31" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="1:8" s="69" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" s="31" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" s="69" customFormat="1" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A6" s="70" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" s="31" customFormat="1" ht="45.6" customHeight="1" thickBot="1">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="15"/>
@@ -1536,72 +1527,72 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="39">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="1:8" s="69" customFormat="1" ht="43.2">
-      <c r="A10" s="72" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" s="31" customFormat="1" ht="43.2">
+      <c r="A10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="28.8">
+      <c r="A11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="43.8" thickBot="1">
+      <c r="A12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="1:8" s="69" customFormat="1" ht="28.8">
-      <c r="A11" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:8" s="69" customFormat="1" ht="43.8" thickBot="1">
-      <c r="A12" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="83"/>
+      <c r="D12" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="15"/>
@@ -1640,72 +1631,72 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="22">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="86" t="s">
+      <c r="B16" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A17" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="85"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A18" s="70" t="s">
+      <c r="H17" s="72"/>
+    </row>
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="87"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="64"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="15"/>
@@ -1744,68 +1735,68 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="39">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-    </row>
-    <row r="22" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="B22" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A24" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A24" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="15"/>
@@ -1857,48 +1848,55 @@
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="78" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="81" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A29" s="68" t="s">
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" s="69" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A30" s="70" t="s">
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" s="31" customFormat="1" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
@@ -1908,18 +1906,11 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="G22:H24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
